--- a/Docs/utils/matrix_forms_generator.xlsx
+++ b/Docs/utils/matrix_forms_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Documents\VS_Code\STetris32\docs\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5109781D-8FC1-402F-A56A-C375AC9CE179}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E448DE7-3989-45BC-8242-A4544A4AA814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C795F7BC-7DF8-4038-B9EA-056C60AFE3C8}"/>
   </bookViews>
@@ -91,736 +91,985 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,7 +1396,7 @@
   <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1199,53 +1448,53 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(H9,G9,F9,E9,D9,C9,B9,A9)</f>
-        <v>00000000</v>
+        <v>00010001</v>
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE($J$1,J2,L$1)</f>
-        <v>0b00000000,</v>
+        <v>0b00010001,</v>
       </c>
       <c r="L2" t="str">
         <f>CONCATENATE(K1,K2,K3,K4,K5,K6,K7,K8,K9,M$1,L$1)</f>
-        <v>{0b00000000,0b00000000,0b00011000,0b00011000,0b00000000,0b00000000,0b00000000,0b00000000},</v>
+        <v>{0b00010001,0b10101010,0b01000100,0b00000000,0b00000000,0b00100010,0b01010101,0b10001000},</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="J3" t="str">
         <f>CONCATENATE(H8,G8,F8,E8,D8,C8,B8,A8)</f>
-        <v>00000000</v>
+        <v>10101010</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K8" si="0">CONCATENATE($J$1,J3,L$1)</f>
-        <v>0b00000000,</v>
+        <v>0b10101010,</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1253,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1265,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1275,15 +1524,15 @@
       </c>
       <c r="J4" t="str">
         <f>CONCATENATE(H7,G7,F7,E7,D7,C7,B7,A7)</f>
-        <v>00011000</v>
+        <v>01000100</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>0b00011000,</v>
+        <v>0b01000100,</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE(N1," ",L2)</f>
-        <v>uint8_t disp1ay[38][8]={ {0b00000000,0b00000000,0b00011000,0b00011000,0b00000000,0b00000000,0b00000000,0b00000000},</v>
+        <v>uint8_t disp1ay[38][8]={ {0b00010001,0b10101010,0b01000100,0b00000000,0b00000000,0b00100010,0b01010101,0b10001000},</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1313,11 +1562,11 @@
       </c>
       <c r="J5" t="str">
         <f>CONCATENATE(H6,G6,F6,E6,D6,C6,B6,A6)</f>
-        <v>00011000</v>
+        <v>00000000</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>0b00011000,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1331,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1362,30 +1611,30 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="J7" t="str">
         <f>CONCATENATE(H4,G4,F4,E4,D4,C4,B4,A4)</f>
-        <v>00000000</v>
+        <v>00100010</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b00100010,</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1393,38 +1642,38 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="str">
         <f>CONCATENATE(H3,G3,F3,E3,D3,C3,B3,A3)</f>
-        <v>00000000</v>
+        <v>01010101</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b01010101,</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1436,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1449,11 +1698,11 @@
       </c>
       <c r="J9" t="str">
         <f>CONCATENATE(H2,G2,F2,E2,D2,C2,B2,A2)</f>
-        <v>00000000</v>
+        <v>10001000</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ref="K9" si="1">CONCATENATE($J$1,J9)</f>
-        <v>0b00000000</v>
+        <v>0b10001000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1497,15 +1746,15 @@
       </c>
       <c r="J11" t="str">
         <f>CONCATENATE(H18,G18,F18,E18,D18,C18,B18,A18)</f>
-        <v>01100111</v>
+        <v>11011101</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($J$1,J11,L$1)</f>
-        <v>0b01100111,</v>
+        <v>0b11011101,</v>
       </c>
       <c r="L11" t="str">
         <f>CONCATENATE(K10,K11,K12,K13,K14,K15,K16,K17,K18,M$1,L$1)</f>
-        <v>{0b01100111,0b11000010,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000},</v>
+        <v>{0b11011101,0b01010101,0b01110111,0b00000000,0b10111011,0b10101010,0b11101110,0b00000000},</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1513,33 +1762,33 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="str">
         <f>CONCATENATE(H17,G17,F17,E17,D17,C17,B17,A17)</f>
-        <v>11000010</v>
+        <v>01010101</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ref="K12:K17" si="2">CONCATENATE($J$1,J12,L$1)</f>
-        <v>0b11000010,</v>
+        <v>0b01010101,</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1547,59 +1796,59 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="str">
         <f>CONCATENATE(H16,G16,F16,E16,D16,C16,B16,A16)</f>
-        <v>00000000</v>
+        <v>01110111</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
+        <v>0b01110111,</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="str">
         <f>CONCATENATE(H15,G15,F15,E15,D15,C15,B15,A15)</f>
@@ -1637,62 +1886,62 @@
       </c>
       <c r="J15" t="str">
         <f>CONCATENATE(H14,G14,F14,E14,D14,C14,B14,A14)</f>
-        <v>00000000</v>
+        <v>10111011</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
+        <v>0b10111011,</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="J16" t="str">
         <f>CONCATENATE(H13,G13,F13,E13,D13,C13,B13,A13)</f>
-        <v>00000000</v>
+        <v>10101010</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
+        <v>0b10101010,</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1701,15 +1950,15 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="str">
         <f>CONCATENATE(H12,G12,F12,E12,D12,C12,B12,A12)</f>
-        <v>00000000</v>
+        <v>11101110</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
+        <v>0b11101110,</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1717,25 +1966,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="str">
         <f>CONCATENATE(H11,G11,F11,E11,D11,C11,B11,A11)</f>
@@ -1891,11 +2140,11 @@
       </c>
       <c r="I172" t="str">
         <f>CONCATENATE($K$4,G172, ", ")</f>
-        <v xml:space="preserve">0b00011000,000, </v>
+        <v xml:space="preserve">0b01000100,000, </v>
       </c>
       <c r="K172" t="str">
         <f>CONCATENATE(C169, " ", I170,I171,I172,I173,I174)</f>
-        <v xml:space="preserve"> 0b00011000,000, 0b00011000,, 0b00011000,</v>
+        <v xml:space="preserve"> 0b01000100,000, 0b01000100,, 0b01000100,</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -1920,7 +2169,7 @@
       </c>
       <c r="I173" t="str">
         <f>CONCATENATE($K$4,G171, ", ")</f>
-        <v xml:space="preserve">0b00011000,, </v>
+        <v xml:space="preserve">0b01000100,, </v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -1945,266 +2194,266 @@
       </c>
       <c r="I174" t="str">
         <f>CONCATENATE($K$4,G170)</f>
-        <v>0b00011000,</v>
+        <v>0b01000100,</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H5">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="69" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 A79:B79 A85:B85 A91:B91 A97:B97 A103:B103 A109:B109 A115:B115 A121:B121 A127:B127 A133:B133 A139:B139 A145:B145 A20:E24 A19:B19 D19:E19 A26:E30 A25:B25 D25:E25 A32:E36 A31:B31 D31:E31 A38:E42 A37:B37 D37:E37 A44:E48 A43:B43 D43:E43 A50:E54 A49:B49 D49:E49 A56:E60 A55:B55 D55:E55 A62:E66 A61:B61 D61:E61 A67:B67 D67:E67 D73:E73 D79:E79 D85:E85 D91:E91 D97:E97 D103:E103 D109:E109 D115:E115 D121:E121 D127:E127 D133:E133 D139:E139 D145:E145 A2:H5">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:E72">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:E78">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:E84">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="61" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:E90">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:E96">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:E102">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:E108">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:E114">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:E120">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:E126">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:E132">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:E138">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:E144">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:E150">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:E156">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:E162 A164:E168">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:E174">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H13">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H13">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/utils/matrix_forms_generator.xlsx
+++ b/Docs/utils/matrix_forms_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Documents\VS_Code\STetris32\docs\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E448DE7-3989-45BC-8242-A4544A4AA814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C2C84-B9DD-415B-A960-6F7B81AE36CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C795F7BC-7DF8-4038-B9EA-056C60AFE3C8}"/>
   </bookViews>
@@ -91,985 +91,652 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1448,24 +1115,24 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(H9,G9,F9,E9,D9,C9,B9,A9)</f>
-        <v>00010001</v>
+        <v>00000000</v>
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE($J$1,J2,L$1)</f>
-        <v>0b00010001,</v>
+        <v>0b00000000,</v>
       </c>
       <c r="L2" t="str">
         <f>CONCATENATE(K1,K2,K3,K4,K5,K6,K7,K8,K9,M$1,L$1)</f>
-        <v>{0b00010001,0b10101010,0b01000100,0b00000000,0b00000000,0b00100010,0b01010101,0b10001000},</v>
+        <v>{0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00011100,0b00001000},</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1474,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1483,18 +1150,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="J3" t="str">
         <f>CONCATENATE(H8,G8,F8,E8,D8,C8,B8,A8)</f>
-        <v>10101010</v>
+        <v>00000000</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K8" si="0">CONCATENATE($J$1,J3,L$1)</f>
-        <v>0b10101010,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1502,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1514,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1524,15 +1191,15 @@
       </c>
       <c r="J4" t="str">
         <f>CONCATENATE(H7,G7,F7,E7,D7,C7,B7,A7)</f>
-        <v>01000100</v>
+        <v>00000000</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>0b01000100,</v>
+        <v>0b00000000,</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE(N1," ",L2)</f>
-        <v>uint8_t disp1ay[38][8]={ {0b00010001,0b10101010,0b01000100,0b00000000,0b00000000,0b00100010,0b01010101,0b10001000},</v>
+        <v>uint8_t disp1ay[38][8]={ {0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00011100,0b00001000},</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1611,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1623,18 +1290,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="J7" t="str">
         <f>CONCATENATE(H4,G4,F4,E4,D4,C4,B4,A4)</f>
-        <v>00100010</v>
+        <v>00000000</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>0b00100010,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1642,38 +1309,38 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="str">
         <f>CONCATENATE(H3,G3,F3,E3,D3,C3,B3,A3)</f>
-        <v>01010101</v>
+        <v>00011100</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>0b01010101,</v>
+        <v>0b00011100,</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1685,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1698,11 +1365,11 @@
       </c>
       <c r="J9" t="str">
         <f>CONCATENATE(H2,G2,F2,E2,D2,C2,B2,A2)</f>
-        <v>10001000</v>
+        <v>00001000</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ref="K9" si="1">CONCATENATE($J$1,J9)</f>
-        <v>0b10001000</v>
+        <v>0b00001000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1746,15 +1413,15 @@
       </c>
       <c r="J11" t="str">
         <f>CONCATENATE(H18,G18,F18,E18,D18,C18,B18,A18)</f>
-        <v>11011101</v>
+        <v>00000000</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($J$1,J11,L$1)</f>
-        <v>0b11011101,</v>
+        <v>0b00000000,</v>
       </c>
       <c r="L11" t="str">
         <f>CONCATENATE(K10,K11,K12,K13,K14,K15,K16,K17,K18,M$1,L$1)</f>
-        <v>{0b11011101,0b01010101,0b01110111,0b00000000,0b10111011,0b10101010,0b11101110,0b00000000},</v>
+        <v>{0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000,0b00000000},</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1762,33 +1429,33 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="str">
         <f>CONCATENATE(H17,G17,F17,E17,D17,C17,B17,A17)</f>
-        <v>01010101</v>
+        <v>00000000</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ref="K12:K17" si="2">CONCATENATE($J$1,J12,L$1)</f>
-        <v>0b01010101,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1796,59 +1463,59 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="str">
         <f>CONCATENATE(H16,G16,F16,E16,D16,C16,B16,A16)</f>
-        <v>01110111</v>
+        <v>00000000</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>0b01110111,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="str">
         <f>CONCATENATE(H15,G15,F15,E15,D15,C15,B15,A15)</f>
@@ -1886,105 +1553,105 @@
       </c>
       <c r="J15" t="str">
         <f>CONCATENATE(H14,G14,F14,E14,D14,C14,B14,A14)</f>
-        <v>10111011</v>
+        <v>00000000</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>0b10111011,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="J16" t="str">
         <f>CONCATENATE(H13,G13,F13,E13,D13,C13,B13,A13)</f>
-        <v>10101010</v>
+        <v>00000000</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>0b10101010,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="J17" t="str">
         <f>CONCATENATE(H12,G12,F12,E12,D12,C12,B12,A12)</f>
-        <v>11101110</v>
+        <v>00000000</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v>0b11101110,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="str">
         <f>CONCATENATE(H11,G11,F11,E11,D11,C11,B11,A11)</f>
@@ -2140,11 +1807,11 @@
       </c>
       <c r="I172" t="str">
         <f>CONCATENATE($K$4,G172, ", ")</f>
-        <v xml:space="preserve">0b01000100,000, </v>
+        <v xml:space="preserve">0b00000000,000, </v>
       </c>
       <c r="K172" t="str">
         <f>CONCATENATE(C169, " ", I170,I171,I172,I173,I174)</f>
-        <v xml:space="preserve"> 0b01000100,000, 0b01000100,, 0b01000100,</v>
+        <v xml:space="preserve"> 0b00000000,000, 0b00000000,, 0b00000000,</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -2169,7 +1836,7 @@
       </c>
       <c r="I173" t="str">
         <f>CONCATENATE($K$4,G171, ", ")</f>
-        <v xml:space="preserve">0b01000100,, </v>
+        <v xml:space="preserve">0b00000000,, </v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -2194,266 +1861,266 @@
       </c>
       <c r="I174" t="str">
         <f>CONCATENATE($K$4,G170)</f>
-        <v>0b01000100,</v>
+        <v>0b00000000,</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H5">
-    <cfRule type="cellIs" dxfId="27" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="94" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 A79:B79 A85:B85 A91:B91 A97:B97 A103:B103 A109:B109 A115:B115 A121:B121 A127:B127 A133:B133 A139:B139 A145:B145 A20:E24 A19:B19 D19:E19 A26:E30 A25:B25 D25:E25 A32:E36 A31:B31 D31:E31 A38:E42 A37:B37 D37:E37 A44:E48 A43:B43 D43:E43 A50:E54 A49:B49 D49:E49 A56:E60 A55:B55 D55:E55 A62:E66 A61:B61 D61:E61 A67:B67 D67:E67 D73:E73 D79:E79 D85:E85 D91:E91 D97:E97 D103:E103 D109:E109 D115:E115 D121:E121 D127:E127 D133:E133 D139:E139 D145:E145 A2:H5">
-    <cfRule type="cellIs" dxfId="92" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:E72">
-    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:E78">
-    <cfRule type="cellIs" dxfId="88" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:E84">
-    <cfRule type="cellIs" dxfId="86" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:E90">
-    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:E96">
-    <cfRule type="cellIs" dxfId="82" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:E102">
-    <cfRule type="cellIs" dxfId="80" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:E108">
-    <cfRule type="cellIs" dxfId="78" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:E114">
-    <cfRule type="cellIs" dxfId="76" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:E120">
-    <cfRule type="cellIs" dxfId="74" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:E126">
-    <cfRule type="cellIs" dxfId="72" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:E132">
-    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:E138">
-    <cfRule type="cellIs" dxfId="68" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:E144">
-    <cfRule type="cellIs" dxfId="66" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:E150">
-    <cfRule type="cellIs" dxfId="64" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:E156">
-    <cfRule type="cellIs" dxfId="62" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:E162 A164:E168">
-    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:E174">
-    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="53" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H13">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H13">
-    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H17">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H17">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
